--- a/players_stats/David Lee.xlsx
+++ b/players_stats/David Lee.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,165 +369,170 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Season</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Season</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Pos</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Pos</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>FG</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FGA</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FGA</t>
+          <t>FG%</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>FG%</t>
+          <t>3P</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>3P</t>
+          <t>3PA</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>3PA</t>
+          <t>3P%</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>3P%</t>
+          <t>2P</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2P</t>
+          <t>2PA</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>2PA</t>
+          <t>2P%</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>2P%</t>
+          <t>eFG%</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>eFG%</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>FT%</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>FT%</t>
+          <t>ORB</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ORB</t>
+          <t>DRB</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>TRB</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>TRB</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>TOV</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>PTS</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>ShootingHand</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>draftRank</t>
         </is>
@@ -537,334 +542,2567 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1967-68</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>25</v>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OAK</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>54</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>753</v>
-      </c>
-      <c r="K2" t="n">
-        <v>125</v>
-      </c>
-      <c r="L2" t="n">
-        <v>276</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>123</v>
-      </c>
-      <c r="R2" t="n">
-        <v>270</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="U2" t="n">
-        <v>120</v>
-      </c>
-      <c r="V2" t="n">
-        <v>140</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
-        <v>184</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>83</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>372</v>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>.596</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>.596</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>.596</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>.577</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t>345</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 206</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AH2" t="n">
-        <v>59</v>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1968-69</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>26</v>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NOB</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>16</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>9</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2</v>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1731</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>.600</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>.600</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>.600</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>.815</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t>621</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 206</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AH3" t="n">
-        <v>59</v>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>.552</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>.000</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>.554</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>.552</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>.819</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2824</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>.549</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>.000</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>.551</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>.549</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>.755</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>1293</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3019</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1258</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>.545</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>.000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>.549</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>.545</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>.812</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>1640</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2634</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>.507</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>.333</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>.508</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>.508</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>.787</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>.503</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>.000</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>.506</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>.503</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>.782</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2012-13</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2907</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>.519</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>.000</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>.521</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>.519</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>.797</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2013-14</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2288</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>.523</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>.000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>.523</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>.523</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>.780</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2014-15</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>.511</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>.000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>.514</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>.511</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>.654</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>.531</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>.000</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>.533</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>.531</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>.763</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>.453</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>.000</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>.455</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>.453</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>.784</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>.636</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>.636</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>.636</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>.738</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1477</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>.590</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>.590</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>.590</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>.708</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ABA</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>58</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>769</v>
-      </c>
-      <c r="K4" t="n">
-        <v>126</v>
-      </c>
-      <c r="L4" t="n">
-        <v>285</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>124</v>
-      </c>
-      <c r="R4" t="n">
-        <v>279</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="U4" t="n">
-        <v>120</v>
-      </c>
-      <c r="V4" t="n">
-        <v>140</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>187</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>83</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>374</v>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 201</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 102 </t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AH4" t="n">
-        <v>59</v>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>24293</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>4587</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>8566</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>.535</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>.034</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>8537</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>.537</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>.536</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2057</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>2666</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>.772</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>2150</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>7320</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>1825</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>1454</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>2170</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>11232</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AI16" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
